--- a/TristanKEREVAL-patch-1/ig/StructureDefinition-prescription-item.xlsx
+++ b/TristanKEREVAL-patch-1/ig/StructureDefinition-prescription-item.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ltsi.univ-rennes.fr/StructureDefinition/PrescriptionItem</t>
+    <t>http://ltsi.univ-rennes.fr/StructureDefinition/prescription-item</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T09:47:39+00:00</t>
+    <t>2024-03-27T10:49:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -719,7 +719,7 @@
     <t>MedicationRequest.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/Prescription)
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/prescription)
 </t>
   </si>
   <si>
@@ -1039,7 +1039,7 @@
     <t>MedicationRequest.medication</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(http://ltsi.univ-rennes.fr/StructureDefinition/OncologyMedication)
+    <t xml:space="preserve">CodeableReference(http://ltsi.univ-rennes.fr/StructureDefinition/oncology-medication)
 </t>
   </si>
   <si>
@@ -1205,7 +1205,7 @@
     <t>MedicationRequest.requester</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/OncologyPractitioner)
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/oncology-practitioner)
 </t>
   </si>
   <si>
